--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="4065" windowWidth="17475" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="3015"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="70">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +70,6 @@
   </si>
   <si>
     <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,6 +160,162 @@
   </si>
   <si>
     <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-使用新银行卡购买精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtBatchUtils.getFinancePlan()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,134 +672,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s">
-        <v>21</v>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
@@ -10,8 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="69">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${DebtBatchUtils.getFinancePlan()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,7 +310,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${DebtBatchUtils.getFinancePlan()}</t>
+    <t>${FinancePlanUtils.getNormalfpId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -703,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -751,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -762,25 +757,25 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -792,28 +787,28 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" t="s">
@@ -822,25 +817,25 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -852,28 +847,28 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" t="s">
@@ -882,25 +877,25 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -912,28 +907,28 @@
         <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" t="s">
@@ -942,25 +937,25 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -972,28 +967,28 @@
         <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" t="s">
@@ -1002,25 +997,25 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1032,28 +1027,28 @@
         <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" t="s">
@@ -1062,25 +1057,25 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -1092,28 +1087,28 @@
         <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" t="s">
@@ -1122,25 +1117,25 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1152,28 +1147,28 @@
         <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" t="s">
@@ -1182,25 +1177,25 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1212,28 +1207,28 @@
         <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" t="s">
@@ -1242,25 +1237,25 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
@@ -1272,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" t="s">
@@ -1302,25 +1297,25 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1332,28 +1327,28 @@
         <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" t="s">
@@ -1362,25 +1357,25 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1392,28 +1387,28 @@
         <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" t="s">
@@ -1422,25 +1417,25 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
@@ -1452,28 +1447,28 @@
         <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" t="s">
@@ -1482,25 +1477,25 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
@@ -1512,28 +1507,28 @@
         <v>18</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" t="s">
@@ -1542,25 +1537,25 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>22</v>
@@ -1572,28 +1567,28 @@
         <v>18</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" t="s">
@@ -1602,25 +1597,25 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>22</v>
@@ -1632,28 +1627,28 @@
         <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
@@ -174,70 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-使用新银行卡购买精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,6 +247,70 @@
   </si>
   <si>
     <t>${FinancePlanUtils.getNormalfpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定建设银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定中信银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定华夏银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定广发银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定平安银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定农业银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定中国银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定招商银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定光大银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定交通银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定民生银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定浦发银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定工商银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定兴业银行卡购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定邮政储蓄卡购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,26 +669,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -757,13 +759,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -772,10 +774,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -796,13 +798,13 @@
         <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>29</v>
@@ -817,13 +819,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -832,10 +834,10 @@
         <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -856,13 +858,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>29</v>
@@ -877,13 +879,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -892,10 +894,10 @@
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -916,13 +918,13 @@
         <v>28</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>29</v>
@@ -937,13 +939,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -952,10 +954,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -976,13 +978,13 @@
         <v>28</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>29</v>
@@ -997,13 +999,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1012,10 +1014,10 @@
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1036,13 +1038,13 @@
         <v>28</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>29</v>
@@ -1057,13 +1059,13 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1072,10 +1074,10 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -1096,13 +1098,13 @@
         <v>28</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>29</v>
@@ -1117,13 +1119,13 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -1132,10 +1134,10 @@
         <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1156,13 +1158,13 @@
         <v>28</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>29</v>
@@ -1177,13 +1179,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -1192,10 +1194,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1216,13 +1218,13 @@
         <v>28</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>29</v>
@@ -1237,13 +1239,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -1252,10 +1254,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
@@ -1276,13 +1278,13 @@
         <v>28</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>29</v>
@@ -1297,13 +1299,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1312,10 +1314,10 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1336,13 +1338,13 @@
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>29</v>
@@ -1357,13 +1359,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -1372,10 +1374,10 @@
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1396,13 +1398,13 @@
         <v>28</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>29</v>
@@ -1417,13 +1419,13 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1432,10 +1434,10 @@
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
@@ -1456,13 +1458,13 @@
         <v>28</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>29</v>
@@ -1477,13 +1479,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -1492,10 +1494,10 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
@@ -1516,13 +1518,13 @@
         <v>28</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>29</v>
@@ -1537,13 +1539,13 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -1552,10 +1554,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>22</v>
@@ -1576,13 +1578,13 @@
         <v>28</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>29</v>
@@ -1597,13 +1599,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -1612,10 +1614,10 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>22</v>
@@ -1636,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>29</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/PaymentByNewBank.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="68">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -670,7 +666,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -762,10 +758,10 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -774,10 +770,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -798,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>29</v>
@@ -819,13 +815,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -834,10 +830,10 @@
         <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -858,13 +854,13 @@
         <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>29</v>
@@ -879,13 +875,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -894,10 +890,10 @@
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -918,13 +914,13 @@
         <v>28</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>29</v>
@@ -939,13 +935,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -954,10 +950,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -978,13 +974,13 @@
         <v>28</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>29</v>
@@ -999,13 +995,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1014,10 +1010,10 @@
         <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1038,13 +1034,13 @@
         <v>28</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>29</v>
@@ -1059,13 +1055,13 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1074,10 +1070,10 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -1098,13 +1094,13 @@
         <v>28</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>29</v>
@@ -1119,13 +1115,13 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -1134,10 +1130,10 @@
         <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1158,13 +1154,13 @@
         <v>28</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>29</v>
@@ -1179,13 +1175,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -1194,10 +1190,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1218,13 +1214,13 @@
         <v>28</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>29</v>
@@ -1239,13 +1235,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -1254,10 +1250,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
@@ -1278,13 +1274,13 @@
         <v>28</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>29</v>
@@ -1299,13 +1295,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1314,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1338,13 +1334,13 @@
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>29</v>
@@ -1359,13 +1355,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -1374,10 +1370,10 @@
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1398,13 +1394,13 @@
         <v>28</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>29</v>
@@ -1419,13 +1415,13 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1434,10 +1430,10 @@
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
@@ -1458,13 +1454,13 @@
         <v>28</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>29</v>
@@ -1479,13 +1475,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -1494,10 +1490,10 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
@@ -1518,13 +1514,13 @@
         <v>28</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>29</v>
@@ -1539,13 +1535,13 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -1554,10 +1550,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>22</v>
@@ -1578,13 +1574,13 @@
         <v>28</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>29</v>
@@ -1599,13 +1595,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -1614,10 +1610,10 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>22</v>
@@ -1638,13 +1634,13 @@
         <v>28</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>29</v>
